--- a/Bibliografia_App_1_indices/Tablas Indices.xlsx
+++ b/Bibliografia_App_1_indices/Tablas Indices.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-AGRO\Bibliografia_App_1_indices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F453A146-7E5D-4EBC-AA81-85264D6B65CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7985A91A-7B66-4EEA-A809-C3CE2923761F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{81953BAB-F9AD-4D2A-A338-EC11C61F63B9}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="160">
   <si>
     <t>Índices de Suelo</t>
   </si>
@@ -205,6 +205,341 @@
   </si>
   <si>
     <t>Riesgo a erosión de suelos descubiertos.</t>
+  </si>
+  <si>
+    <t>Atmospherically resistant vegetation index</t>
+  </si>
+  <si>
+    <t>Índice de Vegetación Atmosféricamente Resistente</t>
+  </si>
+  <si>
+    <t>Utiliza básicamente la fórmula del NDVI corregida para los efectos de dispersión atmosférica en el espectro de reflectancia rojo, utilizando las medidas en longitudes de ondas azules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medir es el verdor de los cultivos y así el estado de salud de las Plantas. 
+Monitorear la cantidad, calidad y desarrollo de un cultivo. </t>
+  </si>
+  <si>
+    <t>La vegetación verde generalmente está entre 0,2 y 0,8, sin embargo estos los valores dependen del tipo de cultivo, región y temporada. En términos generales:
+Valores menores a 0,1 corresponden a suelos sin vegetación (suelos descubierto, rocas, nieve, concreto)
+Valores menores a 0,5 corresponde vegetación escasa y/o  cultivos estresados (por enfermedad o estrés hídrico).
+Valores mayores a 0,5 corresponden a vegetación densa y/o cultivos sanos .</t>
+  </si>
+  <si>
+    <t>ARVI=(NIR-(2∗RED+BLUE))/(NIR+(2∗RED+BLUE))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enhances Vegetation Index </t>
+  </si>
+  <si>
+    <t>Indice de Vegetación Mejorado</t>
+  </si>
+  <si>
+    <t>Utiliza la región de reflección azul para correcciones y reducir los efectos  del fondo del suelo y efectos atmosféricos (como dispersión de aerosol). Es decir que corrige las debilidades del NDVI.</t>
+  </si>
+  <si>
+    <t>Monitoreo y evaluación de variabilidad en el desarrollo del cultivo  de alta densidad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La vegetación saludable generalmente está entre 0,2 y 0,8, sin embargo esto depende del tipo de cultivo, región y temporada. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mejor al NDVI en cultivos con muy alto índice de área foliar (densidad foliar). </t>
+  </si>
+  <si>
+    <t>Utilizar en cultivo de alta densidad  donde el NDVI se puede saturar) y pendiente planas o casi planas</t>
+  </si>
+  <si>
+    <t>EVI=2,5∗((NIR-RED)/(NIR+6∗RED-7,5∗BLUE+1))</t>
+  </si>
+  <si>
+    <t>Green Normalized Difference Vegetation Index</t>
+  </si>
+  <si>
+    <t>Índice de Vegetación de la Diferencia Normalizada Verde</t>
+  </si>
+  <si>
+    <t>Indice de vegetación verde (o actividad fotosintéticas) que utiliza la banda infrarrojo cercano (NIR) y la banda verde (GREEN) del espectro electromagnético. Utilizado para determinar la captación de agua y nitrógeno por el cultivo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluar captación de agua y nitrógeno por el cultivo.
+Monitorear vegetación con estrés y vegetación envejecida. </t>
+  </si>
+  <si>
+    <t>Si bien los valores dependen del tipo de cultivo, región y temporada, en términos generales:
+Valores entre -1 y 0 están asociados a presencia de agua o suelo desnudo.
+Valores menores a 0,5 corresponde vegetación escasa y/o  cultivos estresados (por enfermedad o estrés hídrico).
+Valores mayores a 0,5 corresponden a vegetación densa y/o cultivos sanos.</t>
+  </si>
+  <si>
+    <t>Es más sensible a la concentración de clorofila que el NDVI cuando se utiliza en la etapa intermedia y final del ciclo de lcultivo</t>
+  </si>
+  <si>
+    <t>GNDVI=(NIR-GREEN)/(NIR+RED)</t>
+  </si>
+  <si>
+    <t>Normalized Difference Red Edge</t>
+  </si>
+  <si>
+    <t>Índice de Diferencia Normalizada de Borde Rojo</t>
+  </si>
+  <si>
+    <t>Se construye utilizando las reflexiones de la luz infrarroja cercana (NIR) y la luz RedEdge. Mide el estado de salud de la planta siendo muy sensible a los cambio de Nitrógeno. Es mejor que el NDVI para cultivos en temporada media y tardía de crecimiento que ya han acumulado gran cantidad de clorofila</t>
+  </si>
+  <si>
+    <t>Evaluar contenido de clorofila en la hoja y vigor de la planta. Asimismo permite monitorear la demanda y absorción de nitrógeno.</t>
+  </si>
+  <si>
+    <t>La vegetación verde se encuentra entre  0,2 y 0,9. Los valores dependen del tipo de cultivo, región y temporada, en términos generales:
+Valores menores a 0,5 corresponden a cultivos con menor concentración de clorofila en hojas y menor capacidad de fotosíntesis (es decir plantas poco saludables o estresadas)
+Valores mayores a 0,5 corresponden a cultivos con mayo concentración de clorofila en hojas y mayor capacidad de fotosíntesis (es decir plantas vigorosas y saludables)</t>
+  </si>
+  <si>
+    <t>Muy eficiente para huertos frutales debido a que puede penetrar más profundamente en la la copa de árboles. En cultivos permanentes se debe utilizan en conjunto con el NDVI</t>
+  </si>
+  <si>
+    <t>NDRE=(NIR-RedEdge)/(NIR+RedEdge)</t>
+  </si>
+  <si>
+    <t>Green Chlorophyll Index</t>
+  </si>
+  <si>
+    <t>Índice de clorofila</t>
+  </si>
+  <si>
+    <t>Estima el contenido de clorofila en cultivos utilizando la banda del infrarrojo cercano (NIR) y la banda verde (GREEN). El contenido de clorofila refleja el estado fisiológico de la vegetación. Disminuye en plantas estresadas y por lo tanto es un indicador de la sanidad del cultivo.</t>
+  </si>
+  <si>
+    <t>Monitoreo de impacto de temporalidad, estrés ambiental y aplicación de pesticidas en la salud del cultivo</t>
+  </si>
+  <si>
+    <t>Varía entre 0 a 2.4. Entre más cercano a 2,4 mayor contenido de clorofila</t>
+  </si>
+  <si>
+    <t>Muy sensible al cambio en contenido de clorofila</t>
+  </si>
+  <si>
+    <t>GCI=(NIR/GREEN)-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chlorophyll vegetation index </t>
+  </si>
+  <si>
+    <t>Índice de clorofila de vegatación</t>
+  </si>
+  <si>
+    <t>Es mejor que el NDVI para cultivo en temporada temprana y media (cobertura menor al 40%). Utiliza el infrarrojo cercano (NIR) y las bandas verde (GREEN) y roja (RED).</t>
+  </si>
+  <si>
+    <t>Monitoreo de estado de salud del cultivo y cambio en clorofila en vegetación no densa o al inicio de temporada</t>
+  </si>
+  <si>
+    <t>Su rango varía de 1 a 2,4.  Entre más cercano a 2,4 mayor contenido de clorofila</t>
+  </si>
+  <si>
+    <t>Muy sensible  en vegetación  no densa, vegetación decidua  o al inicio de temporada</t>
+  </si>
+  <si>
+    <t>CVI=(NIR/GREEN)∗(RED/GREEN)</t>
+  </si>
+  <si>
+    <t>Monitoreo vigor planta ajustado al suelo</t>
+  </si>
+  <si>
+    <t>SAVI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soil Adjusted Vegetation Index </t>
+  </si>
+  <si>
+    <t>Indice de Vegetación Ajustado al Suelo</t>
+  </si>
+  <si>
+    <t>Similar al NDVI pero corrige los efectos del suelo cuando la vegetación es baja utilizando un factor de corrección (L). Por lo tanto, discrimina mejor en vegetación no densa o al inicio de temporada.</t>
+  </si>
+  <si>
+    <t>Monitoreo de vegetación en cultivo jóvenes y en regiones áridas con cultivos dispersos</t>
+  </si>
+  <si>
+    <t>Valores menores a 0,5 corresponden a cultivos con menor cantidad de cobertura verde.
+Valores mayores a 0,5 corresponden a cultivos con mayor cantidad de cobertura verde.</t>
+  </si>
+  <si>
+    <t>Útil en vegetación no densa o al inicio de temporada. Es menos sensible a cambio en la vegetación (cantidad y cobertura de la vegetación verde)</t>
+  </si>
+  <si>
+    <t>SAVI=((NIR-RED)/(NIR+RED+L))∗(1+L)</t>
+  </si>
+  <si>
+    <t>MSAVI2</t>
+  </si>
+  <si>
+    <t>Modified Soil Adjusted Vegetation Index </t>
+  </si>
+  <si>
+    <t>Indice de Vegetación Ajustado al Suelo Modificado</t>
+  </si>
+  <si>
+    <t>Mejora del SAVI reduciendo el ruido por el suelo e incrementando el rango de dinámico que señala a la vegetación mediante la siguiente fórmula.</t>
+  </si>
+  <si>
+    <t>Monitoreo del cultivo en sus primeras etapas de desarrollo.  vegetación en cultivo jóvenes y en regiones áridas con cultivos dispersos (menos del 40% de cobertura)</t>
+  </si>
+  <si>
+    <t>Diseñado para utilizar el las primeras etapas del cultivo en donde  debido a la cantidad de suelo descubierto y poco contenido de clorofila no se pueden utilizar otros índices.</t>
+  </si>
+  <si>
+    <t>MSAVI2=(2∗NIR+1-(√(2∗NIR+1)2-8(NIR-Red)))/2</t>
+  </si>
+  <si>
+    <t>Estado hídrico de planta y suelo</t>
+  </si>
+  <si>
+    <t>Monitoreo agua planta</t>
+  </si>
+  <si>
+    <t>NDMI/NDWI</t>
+  </si>
+  <si>
+    <t>Normalized Difference Moisture Index / Normalized Difference Water Index</t>
+  </si>
+  <si>
+    <t>Índice Diferencia Normalizado de Humedad / Índice Diferencial de Agua Normalizado</t>
+  </si>
+  <si>
+    <t>El NDMI y el NDWI (propuesto por Gao (1996) son índices que se calculan de la misma manera. Utiliza el infrarrojo cercano de onda corta (SWIR) que muestra una alta absorción de luz debido al agua para monitorear los cambio en el contenido de agua líquida en la vegetación</t>
+  </si>
+  <si>
+    <t>Monitorear el cambio en el contenido de agua líquida en la vegetación.</t>
+  </si>
+  <si>
+    <t>La vegetación verde se encuentra entre -0,1 y 0,4. Si bien los valores dependen del cultivo y temporada:
+Valores entre -1 y 0 corresponden a no vegetación ni agua.
+Valores menores a 0 y 0,4 corresponden a  presencia de vegetación 
+Valores mayores a 0,4 corresponden a presencia de agua.</t>
+  </si>
+  <si>
+    <t>•Entre más cercano a uno mayor  cantidad de agua líquida en la vegetación. Los valores dependen de la cantidad de madera dura, el tipo de vegetación y cobertura. Durante un período de estrés hídrico el valor del NDWI o NDMI disminuye.</t>
+  </si>
+  <si>
+    <t>NDWI o NDMI=((NIR-SWIR)/(NIR+SWIR))</t>
+  </si>
+  <si>
+    <t>Monitoreo agua suelo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NDWI </t>
+  </si>
+  <si>
+    <t>Normalized Difference Water Index</t>
+  </si>
+  <si>
+    <t>Índice Diferencial de Agua Normalizado</t>
+  </si>
+  <si>
+    <t>Definido por McFeeter (1996) utiliza en infrarrojo cercano (NIR) y la banda verde para monitorear cambio en cuerpos de agua.</t>
+  </si>
+  <si>
+    <t>Monitorear  áreas con gran saturación de agua y cambios en masas de agua.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valores menores a 0,3 corresponden a no agua (suelo y vegetación)
+Valores mayores a 0,3 corresponden a agua. </t>
+  </si>
+  <si>
+    <t>NDWI =((GREEN -NIR)/(GREEN+NIR))</t>
+  </si>
+  <si>
+    <t>Monitoreo agua  planta suelo</t>
+  </si>
+  <si>
+    <t>TDVI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature–Vegetation Dryness Index </t>
+  </si>
+  <si>
+    <t>Indice de Sequía de Vegetación y Temperatura</t>
+  </si>
+  <si>
+    <t>Integra temperatura, vegetación y humedad del suelo. Es decir compara la humedad del suelo y la temperatura con el NDVI.</t>
+  </si>
+  <si>
+    <t>Monitorear humedad del suelo y estrés hídrico de cultivo.</t>
+  </si>
+  <si>
+    <t>TVDI=(Ts-Tsmin)/(a+b∗NDVI-Tsmin)</t>
+  </si>
+  <si>
+    <t>Cobertura del suelo</t>
+  </si>
+  <si>
+    <t>Monitoreo suelos descubiertos</t>
+  </si>
+  <si>
+    <t>NDTI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normalized Difference Tillage Index </t>
+  </si>
+  <si>
+    <t>Indice Diferencial Normalizado de Labranza</t>
+  </si>
+  <si>
+    <t>Estima la cubierta de residuos, mediante la diferencia en reflectancia entre 2 bandas infrarrojas de onda corta (SWIR) cerca de 1600nm y 2300nm.</t>
+  </si>
+  <si>
+    <t>Estimar la cobertura de suelo. En tierras agrícolas puede diferenciar agricultura tradicional de agricultura de conservación.</t>
+  </si>
+  <si>
+    <t>Valores cercanos a 0 corresponden a labranza tradicional.
+Valores mayores a 0,15  corresponden a labranza de conservación.</t>
+  </si>
+  <si>
+    <t>NDTI=(SWIR3-SWIR8)/(SWIR3+SWIR8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SINDRI  </t>
+  </si>
+  <si>
+    <t>Shortwave infrared normalized difference residue index</t>
+  </si>
+  <si>
+    <t>Indice Diferencial Normalizado de Residuos de Infrarrojo de onda corta</t>
+  </si>
+  <si>
+    <t>Se calcula utilizando el infrarrojo de onda corta.</t>
+  </si>
+  <si>
+    <t>Utilizado para mapear los residuos de cultivos en los campos.</t>
+  </si>
+  <si>
+    <t>Valores menores o iguales a 0 corresponden a labranza tradicional.
+Valores mayores a 0,1 corresponden a labranza de conservación.</t>
+  </si>
+  <si>
+    <t>SINDRI=(R2210-R2260)/(R2210-R2260)</t>
+  </si>
+  <si>
+    <t>BSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bare Soil Index </t>
+  </si>
+  <si>
+    <t>Indice de Suelos Descubiertos</t>
+  </si>
+  <si>
+    <t>Es un indicador numérico que combina bandas espectrales azules, rojas, infrarrojas cercanas e infrarrojas de onda corta para capturar las variaciones del suelo.</t>
+  </si>
+  <si>
+    <t>Monitorear suelos descubiertos a los largo de la temporada.</t>
+  </si>
+  <si>
+    <t>El rango es de 0 a 2.</t>
+  </si>
+  <si>
+    <t> BSI=((RED+SWIR)-(NIR+BLUE))/((RED+SWIR)+(NIR+BLUE) )</t>
   </si>
 </sst>
 </file>
@@ -304,7 +639,29 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="8"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -541,9 +898,6 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -554,26 +908,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
+        <sz val="8"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -595,21 +930,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BE810415-CE40-4E6C-B5FD-7BDC715B2FF7}" name="Tabla3" displayName="Tabla3" ref="B3:N10" totalsRowShown="0" dataDxfId="0">
-  <autoFilter ref="B3:N10" xr:uid="{D2565C7E-B0BA-4B79-827F-588BCACAD97E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BE810415-CE40-4E6C-B5FD-7BDC715B2FF7}" name="Tabla3" displayName="Tabla3" ref="B3:N18" totalsRowShown="0" dataDxfId="15">
+  <autoFilter ref="B3:N18" xr:uid="{D2565C7E-B0BA-4B79-827F-588BCACAD97E}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{8630E585-A4D8-4762-826D-E18645296559}" name="Tipo de Índice" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{CEDED712-F43B-4A82-8E55-456FD9BCF0D0}" name="¿Qué mide?" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{5EA251A3-CEB5-4EA8-9901-162954D6AD68}" name="Monitoreo Específico" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{2DDC7E59-E766-4FD9-AC24-28472C238395}" name="Sigla" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{B342E09F-3055-4B95-91EF-561437D6576F}" name="Index" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{4EC7B388-6CAC-4D32-98B0-6B6F6AF70886}" name="Índice" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{C2FBF750-B083-4D2E-870E-9762E82D6B77}" name="Recomendación de Índice" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{AAC95973-5978-4235-8DC9-4D21502F7B81}" name="¿Cómo se calcula?" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{D99CB9FD-9A67-4FA2-ABA8-478175014DC4}" name="¿Para que se usa?" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{DCC04010-1303-403C-B4A5-FF22B79240A0}" name="¿Que significa? ¿Cómo se interpreta?" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{9753B840-73F5-4EBB-BD7D-0A1E90EB2BDD}" name="Importante" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{664C18E1-F178-4125-8A9B-5A5BF9AB67BE}" name="Otras Consideraciones" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{8630E585-A4D8-4762-826D-E18645296559}" name="Tipo de Índice" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{CEDED712-F43B-4A82-8E55-456FD9BCF0D0}" name="¿Qué mide?" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{5EA251A3-CEB5-4EA8-9901-162954D6AD68}" name="Monitoreo Específico" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{2DDC7E59-E766-4FD9-AC24-28472C238395}" name="Sigla" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{B342E09F-3055-4B95-91EF-561437D6576F}" name="Index" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{4EC7B388-6CAC-4D32-98B0-6B6F6AF70886}" name="Índice" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{C2FBF750-B083-4D2E-870E-9762E82D6B77}" name="Recomendación de Índice" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{AAC95973-5978-4235-8DC9-4D21502F7B81}" name="¿Cómo se calcula?" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{D99CB9FD-9A67-4FA2-ABA8-478175014DC4}" name="¿Para que se usa?" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{DCC04010-1303-403C-B4A5-FF22B79240A0}" name="¿Que significa? ¿Cómo se interpreta?" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{9753B840-73F5-4EBB-BD7D-0A1E90EB2BDD}" name="Importante" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{664C18E1-F178-4125-8A9B-5A5BF9AB67BE}" name="Otras Consideraciones" dataDxfId="3"/>
     <tableColumn id="13" xr3:uid="{D8E8DBED-2E53-49E9-BE78-828DB297C1B9}" name="Fórmula"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -621,7 +956,7 @@
   <autoFilter ref="B9:C21" xr:uid="{A3D14F35-72FA-4E47-A178-54567F32CCF6}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{26DB8204-5AE9-463D-8E0C-358C06A9DEC2}" name="Tipo de Índice"/>
-    <tableColumn id="2" xr3:uid="{9FCF5DED-343D-421B-B216-1840A920207E}" name="Principales Usos" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{9FCF5DED-343D-421B-B216-1840A920207E}" name="Principales Usos" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -631,8 +966,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C878DE64-5465-4D0E-A0C9-A914A5CA2482}" name="Descripción" displayName="Descripción" ref="B3:C6" totalsRowShown="0">
   <autoFilter ref="B3:C6" xr:uid="{7E6EC34C-7B92-4566-84BB-282FE6A4300F}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{191F5CD4-E126-457D-99ED-B36503E0AB05}" name="Tipo de Índice" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{6A070FD1-C486-4809-83EF-F3B9AC21435B}" name="Descripción" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{191F5CD4-E126-457D-99ED-B36503E0AB05}" name="Tipo de Índice" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{6A070FD1-C486-4809-83EF-F3B9AC21435B}" name="Descripción" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -935,10 +1270,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0913B7D0-26AD-476B-A622-245B2FD10992}">
-  <dimension ref="A3:N22"/>
+  <dimension ref="A3:N24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B4" sqref="B4:N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1042,7 +1377,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
         <v>2</v>
@@ -1056,18 +1391,33 @@
       <c r="E5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="H5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
+      <c r="I5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="N5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>2</v>
@@ -1081,18 +1431,35 @@
       <c r="E6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="H6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="I6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="N6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
         <v>2</v>
@@ -1106,18 +1473,35 @@
       <c r="E7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="H7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-    </row>
-    <row r="8" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="N7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>2</v>
@@ -1131,18 +1515,35 @@
       <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="H8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-    </row>
-    <row r="9" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="I8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="N8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
         <v>2</v>
@@ -1156,16 +1557,31 @@
       <c r="E9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="H9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+      <c r="I9" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="M9" s="4"/>
+      <c r="N9" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="10" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
@@ -1181,115 +1597,362 @@
       <c r="E10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="H10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
+      <c r="I10" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="M10" s="4"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="51" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
+      <c r="B11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="M11" s="4"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
+      <c r="B12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>110</v>
+      </c>
       <c r="M12" s="4"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+      <c r="N12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="81.599999999999994" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C13" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1306,7 +1969,7 @@
   <dimension ref="B3:D21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B10" sqref="B10:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Bibliografia_App_1_indices/Tablas Indices.xlsx
+++ b/Bibliografia_App_1_indices/Tablas Indices.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-AGRO\Bibliografia_App_1_indices\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Claudia_G\Dropbox\Diseño DATA's\DATA-AGRO\Bibliografia_App_1_indices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7985A91A-7B66-4EEA-A809-C3CE2923761F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5078EC34-3D80-4A33-A2E8-18503343FECD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{81953BAB-F9AD-4D2A-A338-EC11C61F63B9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{81953BAB-F9AD-4D2A-A338-EC11C61F63B9}"/>
   </bookViews>
   <sheets>
     <sheet name="INDICES-DETALLE" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="161">
   <si>
     <t>Índices de Suelo</t>
   </si>
@@ -540,6 +540,9 @@
   </si>
   <si>
     <t> BSI=((RED+SWIR)-(NIR+BLUE))/((RED+SWIR)+(NIR+BLUE) )</t>
+  </si>
+  <si>
+    <t>Sin información disponible</t>
   </si>
 </sst>
 </file>
@@ -1272,29 +1275,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0913B7D0-26AD-476B-A622-245B2FD10992}">
   <dimension ref="A3:N24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:N18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K16" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" customWidth="1"/>
+    <col min="1" max="1" width="3.36328125" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" customWidth="1"/>
+    <col min="3" max="3" width="19.1796875" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="6.77734375" customWidth="1"/>
-    <col min="6" max="6" width="18.77734375" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" customWidth="1"/>
+    <col min="6" max="6" width="18.81640625" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="25.33203125" customWidth="1"/>
-    <col min="9" max="9" width="35.33203125" customWidth="1"/>
-    <col min="10" max="10" width="38.21875" customWidth="1"/>
-    <col min="11" max="11" width="48.77734375" customWidth="1"/>
-    <col min="12" max="12" width="21.6640625" customWidth="1"/>
-    <col min="13" max="13" width="47.77734375" customWidth="1"/>
+    <col min="8" max="8" width="25.36328125" customWidth="1"/>
+    <col min="9" max="9" width="35.36328125" customWidth="1"/>
+    <col min="10" max="10" width="38.1796875" customWidth="1"/>
+    <col min="11" max="11" width="48.81640625" customWidth="1"/>
+    <col min="12" max="12" width="21.6328125" customWidth="1"/>
+    <col min="13" max="13" width="47.81640625" customWidth="1"/>
     <col min="14" max="14" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -1335,7 +1338,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="81.599999999999994" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="84" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>2</v>
@@ -1377,7 +1380,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="81.599999999999994" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="84" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
         <v>2</v>
@@ -1412,12 +1415,14 @@
       <c r="L5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="4"/>
+      <c r="M5" s="4" t="s">
+        <v>160</v>
+      </c>
       <c r="N5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>2</v>
@@ -1459,7 +1464,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="61.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="63" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
         <v>2</v>
@@ -1501,7 +1506,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="81.599999999999994" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="84" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>2</v>
@@ -1543,7 +1548,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="61.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="63" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
         <v>2</v>
@@ -1578,12 +1583,14 @@
       <c r="L9" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="M9" s="4"/>
+      <c r="M9" s="4" t="s">
+        <v>160</v>
+      </c>
       <c r="N9" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="39" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>2</v>
@@ -1618,12 +1625,14 @@
       <c r="L10" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="M10" s="4"/>
+      <c r="M10" s="4" t="s">
+        <v>160</v>
+      </c>
       <c r="N10" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="51" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
         <v>2</v>
@@ -1658,12 +1667,14 @@
       <c r="L11" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="M11" s="4"/>
+      <c r="M11" s="4" t="s">
+        <v>160</v>
+      </c>
       <c r="N11" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="61.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="63" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
         <v>2</v>
@@ -1698,12 +1709,14 @@
       <c r="L12" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="M12" s="4"/>
+      <c r="M12" s="4" t="s">
+        <v>160</v>
+      </c>
       <c r="N12" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="81.599999999999994" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="84" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
@@ -1735,12 +1748,14 @@
       <c r="L13" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="M13" s="4"/>
+      <c r="M13" s="4" t="s">
+        <v>160</v>
+      </c>
       <c r="N13" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="31.5" x14ac:dyDescent="0.35">
       <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
@@ -1769,13 +1784,17 @@
       <c r="K14" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
+      <c r="L14" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>160</v>
+      </c>
       <c r="N14" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="31.5" x14ac:dyDescent="0.35">
       <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
@@ -1801,14 +1820,20 @@
       <c r="J15" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
+      <c r="K15" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>160</v>
+      </c>
       <c r="N15" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="31.5" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
@@ -1837,13 +1862,17 @@
       <c r="K16" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
+      <c r="L16" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>160</v>
+      </c>
       <c r="N16" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="17" spans="2:14" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" ht="52" x14ac:dyDescent="0.35">
       <c r="B17" s="2" t="s">
         <v>0</v>
       </c>
@@ -1872,13 +1901,17 @@
       <c r="K17" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
+      <c r="L17" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>160</v>
+      </c>
       <c r="N17" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" ht="42" x14ac:dyDescent="0.35">
       <c r="B18" s="2" t="s">
         <v>0</v>
       </c>
@@ -1907,13 +1940,17 @@
       <c r="K18" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
+      <c r="L18" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>160</v>
+      </c>
       <c r="N18" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>1</v>
       </c>
@@ -1923,35 +1960,35 @@
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>0</v>
       </c>
@@ -1972,16 +2009,16 @@
       <selection activeCell="B10" sqref="B10:C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="21.77734375" customWidth="1"/>
-    <col min="3" max="3" width="78.44140625" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" customWidth="1"/>
-    <col min="5" max="5" width="27.33203125" customWidth="1"/>
-    <col min="6" max="6" width="30.44140625" customWidth="1"/>
+    <col min="2" max="2" width="21.81640625" customWidth="1"/>
+    <col min="3" max="3" width="78.453125" customWidth="1"/>
+    <col min="4" max="4" width="6.6328125" customWidth="1"/>
+    <col min="5" max="5" width="27.36328125" customWidth="1"/>
+    <col min="6" max="6" width="30.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -1989,7 +2026,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="96" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" ht="84" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1998,7 +2035,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="2:4" ht="24" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" ht="24" x14ac:dyDescent="0.35">
       <c r="B5" s="7" t="s">
         <v>1</v>
       </c>
@@ -2006,7 +2043,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" s="7" t="s">
         <v>0</v>
       </c>
@@ -2014,7 +2051,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>9</v>
       </c>
@@ -2022,7 +2059,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
@@ -2030,7 +2067,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>2</v>
       </c>
@@ -2038,7 +2075,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
         <v>2</v>
       </c>
@@ -2046,7 +2083,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
@@ -2054,7 +2091,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
         <v>2</v>
       </c>
@@ -2062,7 +2099,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>1</v>
       </c>
@@ -2070,7 +2107,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>1</v>
       </c>
@@ -2078,7 +2115,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>1</v>
       </c>
@@ -2086,7 +2123,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>0</v>
       </c>
@@ -2094,7 +2131,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>0</v>
       </c>
@@ -2102,7 +2139,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>0</v>
       </c>
@@ -2110,7 +2147,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>0</v>
       </c>
